--- a/data/trans_bre/P16A09-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Estudios-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>1.646198177191471</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1.833137720446122</v>
+        <v>1.833137720446123</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.448235788621129</v>
+        <v>1.532654854783023</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.27424731950437</v>
+        <v>6.190380084676559</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.295214337239463</v>
+        <v>3.721900941285487</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.961559271775153</v>
+        <v>5.753656480467617</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1744860016330166</v>
+        <v>0.1933951152335915</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.1916195782408</v>
+        <v>1.253717924903416</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7377459937647436</v>
+        <v>0.8191390363505826</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>1.045588849836135</v>
+        <v>0.9677950698598971</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.944690574002109</v>
+        <v>5.825795399942324</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.94889055070902</v>
+        <v>10.67776950870584</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.009508635730358</v>
+        <v>8.196562898268592</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.44992635206992</v>
+        <v>10.36376202099803</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.036804333371679</v>
+        <v>1.040974521418158</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.555269248513858</v>
+        <v>3.497140922745194</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.066266092839905</v>
+        <v>3.156800993632101</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3.212208562314228</v>
+        <v>3.067471103819985</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2908619020216492</v>
+        <v>-0.3845882323081891</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.3355426782992508</v>
+        <v>-0.3509918517577308</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.294555128196964</v>
+        <v>0.3277862185934065</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9345141132709632</v>
+        <v>0.8963339015936317</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.217785427170012</v>
+        <v>-0.2765386928875316</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.220898537423752</v>
+        <v>-0.218660706367829</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2193772975605392</v>
+        <v>0.2145959974527216</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4192970051761679</v>
+        <v>0.3958038397967479</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.403485069901109</v>
+        <v>1.354869549867302</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.327321917555901</v>
+        <v>1.36407456811794</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.830359474893661</v>
+        <v>1.881977110571298</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.612151512861375</v>
+        <v>2.659446441030439</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.644458332515601</v>
+        <v>1.548904242256694</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.364630241141785</v>
+        <v>1.386304838176662</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.422226745069315</v>
+        <v>3.254149036811755</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.051975246182532</v>
+        <v>1.873269815027208</v>
       </c>
     </row>
     <row r="10">
@@ -862,26 +862,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4135862758760031</v>
+        <v>-0.6117201637046172</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.143490625659005</v>
+        <v>-2.001488720970935</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1954120491144535</v>
+        <v>0.207596475469329</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.901969273999426</v>
+        <v>2.015736923372271</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4044654005256142</v>
+        <v>-0.4459719240423253</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.816413866641329</v>
+        <v>-0.8157358876224514</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>2.422466559605806</v>
+        <v>2.431919233964622</v>
       </c>
     </row>
     <row r="12">
@@ -892,22 +892,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.204474623748385</v>
+        <v>3.191297218373311</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.523531546170296</v>
+        <v>1.558237668013244</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.811113690180796</v>
+        <v>1.800148540390513</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.287960384035539</v>
+        <v>4.481442742716263</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>6.146289835934513</v>
+        <v>6.004880252775013</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.512306296738281</v>
+        <v>3.161643443067279</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="inlineStr"/>
@@ -933,7 +933,7 @@
         <v>2.499489570836957</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.5488772863203</v>
+        <v>3.548877286320301</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7448329690319406</v>
@@ -956,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.205012737915008</v>
+        <v>1.182000445658334</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.765839864441423</v>
+        <v>2.787940235247893</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.772358227638996</v>
+        <v>1.740579706860204</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.841896018102747</v>
+        <v>2.825083220174606</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3560202892551412</v>
+        <v>0.3444246804608952</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.058858637887899</v>
+        <v>1.079054611240076</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.095593300169248</v>
+        <v>1.046803808249843</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1.276754849278041</v>
+        <v>1.281055563830668</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.152474363600433</v>
+        <v>3.161185039422092</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.675800149720195</v>
+        <v>4.771359862943633</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.284262899443689</v>
+        <v>3.248766361826369</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.285735151903509</v>
+        <v>4.338095353226339</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.262021528849009</v>
+        <v>1.29663173860091</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.666835754405119</v>
+        <v>2.812849662746886</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.235378559976774</v>
+        <v>3.086142095292808</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.76379537708194</v>
+        <v>2.748956008218868</v>
       </c>
     </row>
     <row r="16">
